--- a/BackTest/2020-01-11 BackTest TRX.xlsx
+++ b/BackTest/2020-01-11 BackTest TRX.xlsx
@@ -12736,20 +12736,14 @@
         <v>15.7085</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>15.58</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L353" t="inlineStr"/>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -12777,20 +12771,14 @@
         <v>15.70433333333333</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>15.58</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L354" t="inlineStr"/>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -12824,12 +12812,12 @@
         <v>0</v>
       </c>
       <c r="J355" t="n">
-        <v>15.56</v>
+        <v>15.55</v>
       </c>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M355" t="n">
@@ -12906,7 +12894,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="n">
-        <v>15.55</v>
+        <v>15.58</v>
       </c>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
@@ -12941,14 +12929,12 @@
         <v>15.69</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>15.61</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
@@ -12982,14 +12968,12 @@
         <v>15.68733333333334</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
@@ -13023,14 +13007,12 @@
         <v>15.68466666666667</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
@@ -13064,14 +13046,12 @@
         <v>15.68150000000001</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>15.59</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
@@ -13105,14 +13085,12 @@
         <v>15.67866666666667</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
@@ -13146,14 +13124,12 @@
         <v>15.67600000000001</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>15.61</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
@@ -13187,14 +13163,12 @@
         <v>15.67300000000001</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>15.61</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
@@ -13228,14 +13202,12 @@
         <v>15.66983333333334</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>15.59</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
@@ -13269,14 +13241,12 @@
         <v>15.66683333333334</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>15.59</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
@@ -13310,14 +13280,12 @@
         <v>15.66350000000001</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>15.59</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
@@ -13351,14 +13319,12 @@
         <v>15.66033333333334</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>15.57</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
@@ -13392,14 +13358,12 @@
         <v>15.65716666666668</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>15.56</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
@@ -13433,14 +13397,12 @@
         <v>15.65500000000001</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>15.56</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
@@ -13474,14 +13436,12 @@
         <v>15.65300000000001</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>15.61</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -13554,14 +13514,12 @@
         <v>15.64816666666668</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>15.61</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -13595,14 +13553,12 @@
         <v>15.64550000000001</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
@@ -13636,14 +13592,12 @@
         <v>15.64333333333334</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
@@ -13677,14 +13631,12 @@
         <v>15.64116666666668</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>15.62</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
@@ -13718,14 +13670,12 @@
         <v>15.64000000000001</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>15.64</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
@@ -13759,14 +13709,12 @@
         <v>15.63866666666667</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>15.68</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
@@ -13800,14 +13748,12 @@
         <v>15.63766666666667</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>15.66</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -13841,14 +13787,12 @@
         <v>15.63683333333334</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>15.67</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -13882,14 +13826,12 @@
         <v>15.63666666666667</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>15.68</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -13923,14 +13865,12 @@
         <v>15.63633333333334</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -14279,18 +14219,16 @@
         <v>0</v>
       </c>
       <c r="I391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M391" t="n">
-        <v>1</v>
-      </c>
+      <c r="M391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -14322,11 +14260,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L392" t="inlineStr"/>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14361,11 +14295,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L393" t="inlineStr"/>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14400,11 +14330,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L394" t="inlineStr"/>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14439,11 +14365,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L395" t="inlineStr"/>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14478,11 +14400,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L396" t="inlineStr"/>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14517,11 +14435,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L397" t="inlineStr"/>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14556,11 +14470,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L398" t="inlineStr"/>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14595,11 +14505,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L399" t="inlineStr"/>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14634,11 +14540,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L400" t="inlineStr"/>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14673,11 +14575,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L401" t="inlineStr"/>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14712,11 +14610,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L402" t="inlineStr"/>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14751,11 +14645,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L403" t="inlineStr"/>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14790,11 +14680,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L404" t="inlineStr"/>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14829,11 +14715,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14868,11 +14750,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L406" t="inlineStr"/>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14907,11 +14785,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L407" t="inlineStr"/>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14946,11 +14820,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L408" t="inlineStr"/>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14985,11 +14855,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L409" t="inlineStr"/>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15024,11 +14890,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L410" t="inlineStr"/>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15063,11 +14925,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L411" t="inlineStr"/>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15102,11 +14960,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L412" t="inlineStr"/>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15141,11 +14995,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L413" t="inlineStr"/>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15180,11 +15030,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L414" t="inlineStr"/>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15219,11 +15065,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L415" t="inlineStr"/>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15258,11 +15100,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15297,11 +15135,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15336,11 +15170,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15375,11 +15205,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15414,11 +15240,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15453,11 +15275,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15492,11 +15310,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15531,11 +15345,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15570,11 +15380,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15609,11 +15415,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15648,11 +15450,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15687,11 +15485,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15726,11 +15520,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15765,11 +15555,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15804,11 +15590,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15843,11 +15625,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15882,11 +15660,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15921,11 +15695,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15960,11 +15730,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15999,11 +15765,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16038,11 +15800,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16077,11 +15835,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16116,11 +15870,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16155,11 +15905,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16194,11 +15940,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16233,11 +15975,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16272,11 +16010,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16311,11 +16045,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16350,11 +16080,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16389,11 +16115,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16428,11 +16150,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16467,11 +16185,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16506,11 +16220,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16545,11 +16255,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16584,11 +16290,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16623,11 +16325,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16662,11 +16360,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16701,11 +16395,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16736,15 +16426,11 @@
         <v>0</v>
       </c>
       <c r="I454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16775,15 +16461,11 @@
         <v>0</v>
       </c>
       <c r="I455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16814,15 +16496,11 @@
         <v>0</v>
       </c>
       <c r="I456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16853,16 +16531,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
+      <c r="M457" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -16890,7 +16566,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
@@ -16925,7 +16601,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
@@ -16960,7 +16636,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
@@ -16995,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
@@ -17030,7 +16706,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
@@ -17065,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
@@ -17100,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
@@ -17135,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
@@ -17170,7 +16846,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
@@ -17205,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
@@ -17240,7 +16916,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
@@ -17275,7 +16951,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
@@ -18885,7 +18561,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
@@ -18920,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
@@ -18955,7 +18631,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
@@ -18990,7 +18666,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
@@ -19025,7 +18701,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
@@ -19060,7 +18736,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
@@ -19095,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest TRX.xlsx
+++ b/BackTest/2020-01-11 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2860,7 +2860,7 @@
         <v>370696.0963178704</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>484790.2682137504</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>677737.1341137504</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3070953.712822611</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3170714.640122611</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3131275.75292261</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>3126801.37722261</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>3126917.15028994</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2626917.15028994</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2633819.32708994</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>2633819.32708994</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>2633819.32708994</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2689872.37498994</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>2694122.02028994</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>2694122.02028994</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>2694122.02028994</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>2695106.28348994</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>2741349.86070361</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>2741109.06700361</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2741109.06700361</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>2769062.51260361</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2768894.24340361</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>2797912.13850361</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>2286536.37870361</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>2171241.71490361</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>2090828.80280361</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2091061.783513</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>551645.1188129997</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>903767.6383129996</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>903830.7576129996</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>821583.1951129996</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>819914.9041129997</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>491292.9896129997</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>498544.6948129997</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-541980.9855950903</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-542157.0687950903</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-542063.8479950903</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-542153.8479950903</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-854602.3165950903</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-939980.1598950903</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-503043.0983950903</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-507802.0491950903</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-477758.2211950903</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-317270.1929950903</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-317270.1929950903</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-788677.7229950903</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-927885.4246950903</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-927467.4977950903</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-3649162.046295091</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-3634266.620495091</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-3634266.620495091</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-3746786.056295091</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-3764674.268595091</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4051588.553195091</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-3815237.836679449</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -13816,10 +13816,14 @@
         <v>-8640018.150379449</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="J407" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
@@ -13849,11 +13853,19 @@
         <v>-8640018.150379449</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="J408" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13885,8 +13897,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,15 +13933,17 @@
         <v>-9149127.694279449</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>15.6</v>
       </c>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L410" t="n">
@@ -13954,10 +13974,14 @@
         <v>-9200295.467779448</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="J411" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13991,10 +14015,14 @@
         <v>-9202894.478879448</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="J412" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14028,10 +14056,14 @@
         <v>-9357916.885779448</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="J413" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14065,10 +14097,14 @@
         <v>-9357916.885779448</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="J414" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14102,10 +14138,14 @@
         <v>-9258257.462779447</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="J415" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14139,10 +14179,14 @@
         <v>-9258257.462779447</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="J416" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14176,12 +14220,14 @@
         <v>-9233445.498979447</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>15.58</v>
       </c>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14215,12 +14261,14 @@
         <v>-9233317.539879447</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>15.61</v>
       </c>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14254,12 +14302,14 @@
         <v>-9233317.539879447</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>15.63</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14293,12 +14343,14 @@
         <v>-9244155.335179446</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>15.63</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14332,10 +14384,14 @@
         <v>-9234155.335179446</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="J421" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14369,10 +14425,14 @@
         <v>-9222566.711779445</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J422" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14406,10 +14466,14 @@
         <v>-9222566.711779445</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="J423" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14443,10 +14507,14 @@
         <v>-9423007.441579446</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="J424" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14480,10 +14548,14 @@
         <v>-9423007.441579446</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="J425" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14517,10 +14589,14 @@
         <v>-9479342.959679447</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="J426" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14554,12 +14630,14 @@
         <v>-9449342.959679447</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>15.56</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14593,12 +14671,14 @@
         <v>-10373721.25997945</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>15.57</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14635,7 +14715,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14672,7 +14754,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14706,12 +14790,12 @@
         <v>-7245023.214179447</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
-      </c>
-      <c r="I431" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14748,7 +14832,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14782,12 +14868,12 @@
         <v>-7235693.270079447</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
-      </c>
-      <c r="I433" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14821,12 +14907,12 @@
         <v>-7216953.299079447</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
-      </c>
-      <c r="I434" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14860,12 +14946,12 @@
         <v>-7316953.299779447</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
-      </c>
-      <c r="I435" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14902,7 +14988,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14939,7 +15027,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14976,7 +15066,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15013,7 +15105,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15050,7 +15144,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15087,7 +15183,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15124,7 +15222,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15161,7 +15261,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15198,7 +15300,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15235,7 +15339,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15272,7 +15378,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15306,12 +15414,12 @@
         <v>-9020043.769093698</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
-      </c>
-      <c r="I447" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15345,12 +15453,12 @@
         <v>-9022994.541793698</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15387,7 +15495,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15424,7 +15534,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15461,7 +15573,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15498,7 +15612,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15535,7 +15651,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15569,10 +15687,14 @@
         <v>-8633743.581093699</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J454" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15609,7 +15731,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15646,7 +15770,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15683,7 +15809,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15720,7 +15848,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15757,7 +15887,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15791,12 +15923,12 @@
         <v>-8841076.171593698</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="J460" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15830,12 +15962,12 @@
         <v>-8835756.171593698</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="J461" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15869,12 +16001,12 @@
         <v>-8392656.146493698</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="J462" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15908,12 +16040,12 @@
         <v>-8409895.146493698</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J463" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15947,12 +16079,12 @@
         <v>-8409895.146493698</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="J464" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15986,12 +16118,12 @@
         <v>-8339944.044793697</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="J465" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16028,7 +16160,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16065,7 +16199,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16099,12 +16235,12 @@
         <v>-8184622.137493697</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="J468" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16138,12 +16274,12 @@
         <v>-8182622.137493697</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>15.73</v>
-      </c>
-      <c r="J469" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16177,12 +16313,12 @@
         <v>-8209799.989993697</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J470" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16216,12 +16352,12 @@
         <v>-8209799.989993697</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J471" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16258,7 +16394,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16295,7 +16433,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16329,12 +16469,12 @@
         <v>-8321342.498193697</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="J474" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16368,12 +16508,12 @@
         <v>-8321242.498193697</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="J475" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16407,12 +16547,12 @@
         <v>-8321242.498193697</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J476" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16446,12 +16586,12 @@
         <v>-8320952.096993697</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="J477" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16488,7 +16628,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16525,7 +16667,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16562,7 +16706,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16599,7 +16745,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16636,7 +16784,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16673,7 +16823,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16710,7 +16862,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16747,7 +16901,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16784,7 +16940,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16821,7 +16979,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16858,7 +17018,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16895,7 +17057,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16932,7 +17096,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16969,7 +17135,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17006,7 +17174,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17043,7 +17213,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17080,7 +17252,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17117,7 +17291,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17154,7 +17330,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17191,7 +17369,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17228,7 +17408,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17265,7 +17447,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17302,7 +17486,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17339,7 +17525,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17373,10 +17561,12 @@
         <v>-7302490.975819487</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17410,10 +17600,12 @@
         <v>-7302490.975819487</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17447,10 +17639,12 @@
         <v>-7305925.718019487</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17484,10 +17678,12 @@
         <v>-7302903.339019488</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17521,10 +17717,12 @@
         <v>-7568047.742790498</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17558,10 +17756,12 @@
         <v>-7411276.826190498</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17598,7 +17798,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17635,7 +17837,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17672,7 +17876,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17709,7 +17915,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17746,7 +17954,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17783,7 +17993,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17820,7 +18032,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17857,7 +18071,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17891,10 +18107,12 @@
         <v>-7235410.214569807</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17928,10 +18146,12 @@
         <v>-7205083.867969807</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17968,7 +18188,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18005,7 +18227,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18042,7 +18266,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18079,7 +18305,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18116,7 +18344,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18153,7 +18383,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18190,7 +18422,9 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18227,7 +18461,9 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18264,7 +18500,9 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18301,7 +18539,9 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18338,7 +18578,9 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18375,7 +18617,9 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18412,7 +18656,9 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18449,7 +18695,9 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18486,7 +18734,9 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18523,7 +18773,9 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18560,7 +18812,9 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18597,7 +18851,9 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18634,7 +18890,9 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18671,7 +18929,9 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18708,7 +18968,9 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18745,7 +19007,9 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18782,7 +19046,9 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18819,7 +19085,9 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18856,7 +19124,9 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18893,7 +19163,9 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18930,7 +19202,9 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18967,7 +19241,9 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19004,7 +19280,9 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19041,7 +19319,9 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19078,7 +19358,9 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19115,7 +19397,9 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19152,7 +19436,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19189,7 +19475,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19226,7 +19514,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19263,7 +19553,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19300,7 +19592,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19337,7 +19631,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19374,7 +19670,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19411,7 +19709,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19448,7 +19748,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19485,7 +19787,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19522,7 +19826,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19559,7 +19865,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19596,7 +19904,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19633,7 +19943,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19670,7 +19982,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19707,7 +20021,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19744,7 +20060,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19781,7 +20099,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19818,7 +20138,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19855,7 +20177,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19892,7 +20216,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19929,7 +20255,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19966,7 +20294,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20003,7 +20333,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20040,7 +20372,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20077,7 +20411,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20114,7 +20450,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20148,16 +20486,20 @@
         <v>-5311477.091056933</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>15.63</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L577" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
       <c r="M577" t="inlineStr"/>
     </row>
     <row r="578">
@@ -20186,8 +20528,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20219,8 +20567,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20252,8 +20606,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20285,8 +20645,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20318,8 +20684,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20351,8 +20723,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20384,8 +20762,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20417,8 +20801,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20450,8 +20840,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20483,8 +20879,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20516,8 +20918,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20549,8 +20957,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20582,8 +20996,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20615,8 +21035,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20648,8 +21074,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20681,8 +21113,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20714,8 +21152,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20747,8 +21191,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20780,8 +21230,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20813,8 +21269,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20846,8 +21308,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20879,8 +21347,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20912,8 +21386,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20945,8 +21425,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20978,8 +21464,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21011,8 +21503,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21044,8 +21542,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21077,8 +21581,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21110,8 +21620,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21143,8 +21659,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21176,8 +21698,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21209,8 +21737,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21242,8 +21776,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21275,8 +21815,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21308,8 +21854,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21341,8 +21893,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21374,8 +21932,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21407,8 +21971,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21440,8 +22010,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21473,8 +22049,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21506,8 +22088,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21539,8 +22127,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21572,8 +22166,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21605,8 +22205,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21638,8 +22244,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21671,8 +22283,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21704,8 +22322,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21737,8 +22361,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21770,8 +22400,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21803,8 +22439,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21836,8 +22478,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21869,8 +22517,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21902,8 +22556,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21935,8 +22595,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21968,8 +22634,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22001,8 +22673,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22034,8 +22712,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22067,8 +22751,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22100,8 +22790,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22133,8 +22829,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22166,8 +22868,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22199,8 +22907,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22232,8 +22946,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22265,8 +22985,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22298,14 +23024,20 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
       <c r="M642" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest TRX.xlsx
+++ b/BackTest/2020-01-11 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1804,7 +1804,7 @@
         <v>49439.45413297038</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>49439.45413297038</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-23123.70786702962</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6876.292132970382</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6876.292132970382</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-42619.14686702962</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1670.028532970377</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1416.011467029623</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>305987.7621178704</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>302905.6421178704</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>351662.2562178704</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>355282.2562178704</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>353115.1462178704</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>356735.1462178704</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>356735.1462178704</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>355974.9463178704</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>370696.0963178704</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>677607.9642137504</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3070953.712822611</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3170714.640122611</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3131275.75292261</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3280014.24942261</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3280014.24942261</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3249593.21272261</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3251410.10692261</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3250935.73062261</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3315935.73062261</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>3315935.73062261</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>3126801.37722261</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>2757966.86368994</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>2757966.86368994</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2689872.37498994</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>2741109.06700361</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>551645.1188129997</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>903830.7576129996</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-541980.9855950903</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-542157.0687950903</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-542063.8479950903</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-542153.8479950903</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-854602.3165950903</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-939980.1598950903</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-503043.0983950903</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-507802.0491950903</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-477758.2211950903</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-317270.1929950903</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-317270.1929950903</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-788677.7229950903</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-927885.4246950903</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-927467.4977950903</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-3649162.046295091</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-3634266.620495091</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-3634266.620495091</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-3746786.056295091</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -13816,14 +13816,10 @@
         <v>-8640018.150379449</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="J407" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
@@ -13853,304 +13849,248 @@
         <v>-8640018.150379449</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="J408" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K408" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="C409" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D409" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="E409" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F409" t="n">
+        <v>307896.3685</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-8947914.518879449</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C410" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="D410" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E410" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="F410" t="n">
+        <v>201213.1754</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-9149127.694279449</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="C411" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="D411" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="E411" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="F411" t="n">
+        <v>51167.7735</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-9200295.467779448</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="C412" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="D412" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="E412" t="n">
+        <v>15.57</v>
+      </c>
+      <c r="F412" t="n">
+        <v>2599.0111</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-9202894.478879448</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="C413" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="D413" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="E413" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="F413" t="n">
+        <v>155022.4069</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-9357916.885779448</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="C414" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="D414" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="E414" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="F414" t="n">
+        <v>133686.5631</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-9357916.885779448</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C415" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="D415" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="E415" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="F415" t="n">
+        <v>99659.423</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-9258257.462779447</v>
+      </c>
+      <c r="H415" t="n">
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="C409" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D409" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="E409" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F409" t="n">
-        <v>307896.3685</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-8947914.518879449</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C410" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="D410" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E410" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="F410" t="n">
-        <v>201213.1754</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-9149127.694279449</v>
-      </c>
-      <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J410" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="C411" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="D411" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="E411" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="F411" t="n">
-        <v>51167.7735</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-9200295.467779448</v>
-      </c>
-      <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="J411" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="C412" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="D412" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="E412" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="F412" t="n">
-        <v>2599.0111</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-9202894.478879448</v>
-      </c>
-      <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="J412" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="C413" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="D413" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="E413" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="F413" t="n">
-        <v>155022.4069</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-9357916.885779448</v>
-      </c>
-      <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="J413" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="C414" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="D414" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="E414" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="F414" t="n">
-        <v>133686.5631</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-9357916.885779448</v>
-      </c>
-      <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="J414" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="C415" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="D415" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="E415" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="F415" t="n">
-        <v>99659.423</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-9258257.462779447</v>
-      </c>
-      <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="J415" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14184,9 +14124,7 @@
       <c r="I416" t="n">
         <v>15.58</v>
       </c>
-      <c r="J416" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14225,9 +14163,7 @@
       <c r="I417" t="n">
         <v>15.58</v>
       </c>
-      <c r="J417" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14266,9 +14202,7 @@
       <c r="I418" t="n">
         <v>15.61</v>
       </c>
-      <c r="J418" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14302,14 +14236,10 @@
         <v>-9233317.539879447</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="J419" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14343,14 +14273,10 @@
         <v>-9244155.335179446</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="J420" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14384,14 +14310,10 @@
         <v>-9234155.335179446</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="J421" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14425,14 +14347,10 @@
         <v>-9222566.711779445</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="J422" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14466,14 +14384,10 @@
         <v>-9222566.711779445</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="J423" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14507,14 +14421,10 @@
         <v>-9423007.441579446</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="J424" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14548,14 +14458,10 @@
         <v>-9423007.441579446</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="J425" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14589,14 +14495,10 @@
         <v>-9479342.959679447</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="J426" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14630,14 +14532,10 @@
         <v>-9449342.959679447</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="J427" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14676,9 +14574,7 @@
       <c r="I428" t="n">
         <v>15.57</v>
       </c>
-      <c r="J428" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14712,12 +14608,12 @@
         <v>-7191885.919379447</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>15.63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14754,9 +14650,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14793,9 +14687,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14832,9 +14724,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14871,9 +14761,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14910,9 +14798,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14949,9 +14835,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14988,9 +14872,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15027,9 +14909,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15066,9 +14946,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15105,9 +14983,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15144,9 +15020,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15183,9 +15057,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15222,9 +15094,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15261,9 +15131,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15300,9 +15168,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15339,9 +15205,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15378,9 +15242,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15417,9 +15279,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15453,12 +15313,12 @@
         <v>-9022994.541793698</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>15.63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15492,12 +15352,12 @@
         <v>-9013751.770693699</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>15.63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15534,9 +15394,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15573,9 +15431,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15612,9 +15468,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15651,9 +15505,7 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15687,14 +15539,10 @@
         <v>-8633743.581093699</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="J454" t="n">
-        <v>15.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15731,9 +15579,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15770,9 +15616,7 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15809,9 +15653,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15848,9 +15690,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15884,12 +15724,12 @@
         <v>-8841076.171593698</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>15.63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15923,12 +15763,12 @@
         <v>-8841076.171593698</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
         <v>15.63</v>
       </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15962,12 +15802,12 @@
         <v>-8835756.171593698</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
         <v>15.63</v>
       </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16001,12 +15841,12 @@
         <v>-8392656.146493698</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>15.63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16040,12 +15880,12 @@
         <v>-8409895.146493698</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>15.63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16079,12 +15919,12 @@
         <v>-8409895.146493698</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>15.63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16118,12 +15958,12 @@
         <v>-8339944.044793697</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>15.63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16160,9 +16000,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16199,9 +16037,7 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16238,9 +16074,7 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16277,9 +16111,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16316,9 +16148,7 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16355,9 +16185,7 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16394,9 +16222,7 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16433,9 +16259,7 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16472,9 +16296,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16511,9 +16333,7 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16550,9 +16370,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16589,9 +16407,7 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16628,9 +16444,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16667,9 +16481,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16706,9 +16518,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16745,9 +16555,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16784,9 +16592,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16823,9 +16629,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16862,9 +16666,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16901,9 +16703,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16940,9 +16740,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16979,9 +16777,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17018,9 +16814,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17057,9 +16851,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17096,9 +16888,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,9 +16925,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17174,9 +16962,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17213,9 +16999,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17252,9 +17036,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17291,9 +17073,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17330,9 +17110,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17366,20 +17144,16 @@
         <v>-7072647.927119486</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>15.63</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L497" t="n">
-        <v>1</v>
-      </c>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="inlineStr"/>
     </row>
     <row r="498">
@@ -17405,17 +17179,11 @@
         <v>-7652986.999419486</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17444,17 +17212,11 @@
         <v>-7275790.818819487</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17483,17 +17245,11 @@
         <v>-7275790.818819487</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17522,17 +17278,11 @@
         <v>-7267651.051019487</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17561,17 +17311,11 @@
         <v>-7302490.975819487</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17600,17 +17344,11 @@
         <v>-7302490.975819487</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17639,17 +17377,11 @@
         <v>-7305925.718019487</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17678,17 +17410,11 @@
         <v>-7302903.339019488</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17717,17 +17443,11 @@
         <v>-7568047.742790498</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17756,17 +17476,11 @@
         <v>-7411276.826190498</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17795,17 +17509,11 @@
         <v>-7393632.025990497</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17834,17 +17542,11 @@
         <v>-7338269.775990497</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17873,17 +17575,11 @@
         <v>-7076361.762190497</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17912,17 +17608,11 @@
         <v>-7076361.762190497</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17951,17 +17641,11 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17990,17 +17674,11 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18029,17 +17707,11 @@
         <v>-7022503.390128387</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18068,17 +17740,11 @@
         <v>-6993846.214369807</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18110,14 +17776,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18149,14 +17809,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18188,14 +17842,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18227,14 +17875,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18266,14 +17908,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18305,14 +17941,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18341,17 +17971,11 @@
         <v>-7543642.432569806</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18380,17 +18004,11 @@
         <v>-7543642.432569806</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18419,17 +18037,11 @@
         <v>-7345337.075369806</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18458,17 +18070,11 @@
         <v>-7345337.075369806</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18500,14 +18106,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18539,14 +18139,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18578,14 +18172,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18617,14 +18205,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18656,14 +18238,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18695,14 +18271,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18734,14 +18304,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18773,14 +18337,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18812,14 +18370,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18851,14 +18403,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18890,14 +18436,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18929,14 +18469,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18968,14 +18502,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19007,14 +18535,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19046,14 +18568,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19085,14 +18601,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19124,14 +18634,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19163,14 +18667,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19202,14 +18700,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19241,14 +18733,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19280,14 +18766,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19319,14 +18799,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19358,14 +18832,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19397,14 +18865,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19436,14 +18898,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19475,14 +18931,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19514,14 +18964,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19553,14 +18997,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19592,14 +19030,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19631,14 +19063,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19670,14 +19096,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19709,14 +19129,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19748,14 +19162,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19787,14 +19195,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19826,14 +19228,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19865,14 +19261,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19904,14 +19294,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19943,14 +19327,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19982,14 +19360,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20021,14 +19393,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20060,14 +19426,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20099,14 +19459,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20138,14 +19492,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20177,14 +19525,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20216,14 +19558,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20255,14 +19591,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20294,14 +19624,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20333,14 +19657,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20372,14 +19690,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20411,14 +19723,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20450,14 +19756,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20489,14 +19789,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20528,14 +19822,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20567,14 +19855,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20606,14 +19888,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20645,14 +19921,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20684,14 +19954,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20723,14 +19987,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20762,14 +20020,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20801,14 +20053,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20840,14 +20086,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20879,14 +20119,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20918,14 +20152,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20957,14 +20185,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20996,14 +20218,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21035,14 +20251,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21074,14 +20284,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21113,14 +20317,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21152,14 +20350,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21191,14 +20383,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21230,14 +20416,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21269,14 +20449,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21308,14 +20482,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21347,14 +20515,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21386,14 +20548,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21425,14 +20581,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21464,14 +20614,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21503,14 +20647,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21542,14 +20680,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21581,14 +20713,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21620,14 +20746,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21659,14 +20779,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21698,14 +20812,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21737,14 +20845,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21776,14 +20878,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21815,14 +20911,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21854,14 +20944,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21893,14 +20977,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21932,14 +21010,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21971,14 +21043,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22010,14 +21076,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -22049,14 +21109,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22088,14 +21142,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22127,14 +21175,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22166,14 +21208,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22205,14 +21241,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22244,14 +21274,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22283,14 +21307,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22322,14 +21340,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22361,14 +21373,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22400,14 +21406,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22439,14 +21439,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22478,14 +21472,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22517,14 +21505,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22556,14 +21538,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22595,14 +21571,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22634,14 +21604,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22673,14 +21637,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22712,14 +21670,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22751,14 +21703,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22790,14 +21736,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22829,14 +21769,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22868,14 +21802,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22907,14 +21835,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22946,14 +21868,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22985,14 +21901,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23024,20 +21934,14 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
       <c r="M642" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest TRX.xlsx
+++ b/BackTest/2020-01-11 BackTest TRX.xlsx
@@ -1804,7 +1804,7 @@
         <v>49439.45413297038</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>49439.45413297038</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-23123.70786702962</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6876.292132970382</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6876.292132970382</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-42619.14686702962</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1670.028532970377</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1416.011467029623</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>305987.7621178704</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>302905.6421178704</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>358905.6421178704</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>351662.2562178704</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>355282.2562178704</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>353115.1462178704</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>356735.1462178704</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>356735.1462178704</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>355974.9463178704</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>370696.0963178704</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>677607.9642137504</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>3062290.84500917</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>3070953.712822611</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>3170714.640122611</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>3131275.75292261</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>3280014.24942261</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>3280014.24942261</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>3249593.21272261</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>3251410.10692261</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>3250935.73062261</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>3315935.73062261</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>3315935.73062261</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>2741109.06700361</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>2769062.51260361</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>2768894.24340361</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>2797912.13850361</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>2797912.13850361</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>2298106.04620361</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>2300304.64190361</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>2286536.37870361</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>2171241.71490361</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>2090828.80280361</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2091061.783513</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>551645.1188129997</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>903767.6383129996</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>903830.7576129996</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>801164.9666129997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>821583.1951129996</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>819914.9041129997</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>491292.9896129997</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>498544.6948129997</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>493012.8960129997</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>559836.3376129997</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>357236.3376129997</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-578537.5100870003</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-541980.9855950903</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-542157.0687950903</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-542063.8479950903</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-542153.8479950903</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-552690.0627950903</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -14080,430 +14080,404 @@
         <v>-9258257.462779447</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
         <v>15.55</v>
       </c>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
+      <c r="C416" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="D416" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="E416" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="F416" t="n">
+        <v>152952.935</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-9258257.462779447</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="C417" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="D417" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="E417" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F417" t="n">
+        <v>24811.9638</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-9233445.498979447</v>
+      </c>
+      <c r="H417" t="n">
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="C418" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="D418" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="E418" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="F418" t="n">
+        <v>127.9591</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-9233317.539879447</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="n">
+        <v>1</v>
+      </c>
+      <c r="M418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="C419" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="D419" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="E419" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="F419" t="n">
+        <v>639.8003</v>
+      </c>
+      <c r="G419" t="n">
+        <v>-9233317.539879447</v>
+      </c>
+      <c r="H419" t="n">
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="C420" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="D420" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="E420" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="F420" t="n">
+        <v>10837.7953</v>
+      </c>
+      <c r="G420" t="n">
+        <v>-9244155.335179446</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C421" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D421" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E421" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F421" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G421" t="n">
+        <v>-9234155.335179446</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="J421" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="C422" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="D422" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="E422" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F422" t="n">
+        <v>11588.6234</v>
+      </c>
+      <c r="G422" t="n">
+        <v>-9222566.711779445</v>
+      </c>
+      <c r="H422" t="n">
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="J422" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="C423" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="D423" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="E423" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="F423" t="n">
+        <v>60211.4024</v>
+      </c>
+      <c r="G423" t="n">
+        <v>-9222566.711779445</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
+      <c r="M423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="C424" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="D424" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="E424" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="F424" t="n">
+        <v>200440.7298</v>
+      </c>
+      <c r="G424" t="n">
+        <v>-9423007.441579446</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="n">
+        <v>1</v>
+      </c>
+      <c r="M424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="C425" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="D425" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="E425" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="F425" t="n">
+        <v>10004.2065</v>
+      </c>
+      <c r="G425" t="n">
+        <v>-9423007.441579446</v>
+      </c>
+      <c r="H425" t="n">
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="J425" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="n">
+        <v>1</v>
+      </c>
+      <c r="M425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="C426" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="D426" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="E426" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F426" t="n">
+        <v>56335.5181</v>
+      </c>
+      <c r="G426" t="n">
+        <v>-9479342.959679447</v>
+      </c>
+      <c r="H426" t="n">
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="J426" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K426" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="C416" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="D416" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="E416" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="F416" t="n">
-        <v>152952.935</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-9258257.462779447</v>
-      </c>
-      <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="C417" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="D417" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="E417" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="F417" t="n">
-        <v>24811.9638</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-9233445.498979447</v>
-      </c>
-      <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="C418" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="D418" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="E418" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="F418" t="n">
-        <v>127.9591</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-9233317.539879447</v>
-      </c>
-      <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L418" t="n">
-        <v>1</v>
-      </c>
-      <c r="M418" t="inlineStr"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="C419" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="D419" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="E419" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="F419" t="n">
-        <v>639.8003</v>
-      </c>
-      <c r="G419" t="n">
-        <v>-9233317.539879447</v>
-      </c>
-      <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L419" t="n">
-        <v>1</v>
-      </c>
-      <c r="M419" t="inlineStr"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="C420" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="D420" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="E420" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="F420" t="n">
-        <v>10837.7953</v>
-      </c>
-      <c r="G420" t="n">
-        <v>-9244155.335179446</v>
-      </c>
-      <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L420" t="n">
-        <v>1</v>
-      </c>
-      <c r="M420" t="inlineStr"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C421" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D421" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E421" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F421" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G421" t="n">
-        <v>-9234155.335179446</v>
-      </c>
-      <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L421" t="n">
-        <v>1</v>
-      </c>
-      <c r="M421" t="inlineStr"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="C422" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="D422" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="E422" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="F422" t="n">
-        <v>11588.6234</v>
-      </c>
-      <c r="G422" t="n">
-        <v>-9222566.711779445</v>
-      </c>
-      <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L422" t="n">
-        <v>1</v>
-      </c>
-      <c r="M422" t="inlineStr"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="C423" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="D423" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="E423" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="F423" t="n">
-        <v>60211.4024</v>
-      </c>
-      <c r="G423" t="n">
-        <v>-9222566.711779445</v>
-      </c>
-      <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
-      <c r="M423" t="inlineStr"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="C424" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="D424" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="E424" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="F424" t="n">
-        <v>200440.7298</v>
-      </c>
-      <c r="G424" t="n">
-        <v>-9423007.441579446</v>
-      </c>
-      <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L424" t="n">
-        <v>1</v>
-      </c>
-      <c r="M424" t="inlineStr"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="C425" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="D425" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="E425" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="F425" t="n">
-        <v>10004.2065</v>
-      </c>
-      <c r="G425" t="n">
-        <v>-9423007.441579446</v>
-      </c>
-      <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L425" t="n">
-        <v>1</v>
-      </c>
-      <c r="M425" t="inlineStr"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="C426" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="D426" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="E426" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="F426" t="n">
-        <v>56335.5181</v>
-      </c>
-      <c r="G426" t="n">
-        <v>-9479342.959679447</v>
-      </c>
-      <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14532,10 +14506,14 @@
         <v>-9449342.959679447</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="J427" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14574,7 +14552,9 @@
       <c r="I428" t="n">
         <v>15.57</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14613,7 +14593,9 @@
       <c r="I429" t="n">
         <v>15.56</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14650,7 +14632,9 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14687,7 +14671,9 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14724,7 +14710,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14761,7 +14749,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14798,7 +14788,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14835,7 +14827,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,7 +14866,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14909,7 +14905,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14946,7 +14944,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14983,7 +14983,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15020,7 +15022,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15057,7 +15061,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15094,7 +15100,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15131,7 +15139,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15168,7 +15178,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15205,7 +15217,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15242,7 +15256,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15279,7 +15295,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15313,12 +15331,12 @@
         <v>-9022994.541793698</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>15.67</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15352,12 +15370,12 @@
         <v>-9013751.770693699</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="J449" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15394,7 +15412,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15431,7 +15451,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15468,7 +15490,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15505,7 +15529,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15539,10 +15565,14 @@
         <v>-8633743.581093699</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J454" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15576,10 +15606,14 @@
         <v>-8636213.123093698</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="J455" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15613,10 +15647,14 @@
         <v>-8601012.861093698</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J456" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15650,10 +15688,14 @@
         <v>-8601076.171593698</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="J457" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15687,10 +15729,14 @@
         <v>-8801076.171593698</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="J458" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,7 +15775,9 @@
       <c r="I459" t="n">
         <v>15.65</v>
       </c>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15768,7 +15816,9 @@
       <c r="I460" t="n">
         <v>15.63</v>
       </c>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15807,7 +15857,9 @@
       <c r="I461" t="n">
         <v>15.63</v>
       </c>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15846,7 +15898,9 @@
       <c r="I462" t="n">
         <v>15.66</v>
       </c>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15885,7 +15939,9 @@
       <c r="I463" t="n">
         <v>15.71</v>
       </c>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15924,7 +15980,9 @@
       <c r="I464" t="n">
         <v>15.67</v>
       </c>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15963,7 +16021,9 @@
       <c r="I465" t="n">
         <v>15.67</v>
       </c>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15997,10 +16057,14 @@
         <v>-8270195.368093697</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="J466" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16034,10 +16098,14 @@
         <v>-8170195.368093697</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="J467" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16071,10 +16139,14 @@
         <v>-8184622.137493697</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="J468" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16108,10 +16180,14 @@
         <v>-8182622.137493697</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="J469" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16148,7 +16224,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16182,10 +16260,14 @@
         <v>-8209799.989993697</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="J471" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16222,7 +16304,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16256,10 +16340,14 @@
         <v>-8324342.498193697</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="J473" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16293,10 +16381,14 @@
         <v>-8321342.498193697</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="J474" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16330,10 +16422,14 @@
         <v>-8321242.498193697</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="J475" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16370,7 +16466,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16407,7 +16505,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16444,7 +16544,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16481,7 +16583,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16518,7 +16622,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16555,7 +16661,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16592,7 +16700,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16629,7 +16739,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16666,7 +16778,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16703,7 +16817,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16740,7 +16856,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16777,7 +16895,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16814,7 +16934,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16851,7 +16973,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16888,7 +17012,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16925,7 +17051,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16962,7 +17090,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16999,7 +17129,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17036,7 +17168,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17073,7 +17207,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17110,7 +17246,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>15.59</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17144,2457 +17282,2905 @@
         <v>-7072647.927119486</v>
       </c>
       <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L497" t="n">
+        <v>1</v>
+      </c>
+      <c r="M497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="C498" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D498" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="E498" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F498" t="n">
+        <v>580339.0723</v>
+      </c>
+      <c r="G498" t="n">
+        <v>-7652986.999419486</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L498" t="n">
+        <v>1</v>
+      </c>
+      <c r="M498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="C499" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="D499" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="E499" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="F499" t="n">
+        <v>377196.1806</v>
+      </c>
+      <c r="G499" t="n">
+        <v>-7275790.818819487</v>
+      </c>
+      <c r="H499" t="n">
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L499" t="n">
+        <v>1</v>
+      </c>
+      <c r="M499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="C500" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="D500" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="E500" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="F500" t="n">
+        <v>804133.3827</v>
+      </c>
+      <c r="G500" t="n">
+        <v>-7275790.818819487</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L500" t="n">
+        <v>1</v>
+      </c>
+      <c r="M500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="C501" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D501" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="E501" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="F501" t="n">
+        <v>8139.7678</v>
+      </c>
+      <c r="G501" t="n">
+        <v>-7267651.051019487</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
+      <c r="M501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="C502" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="D502" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="E502" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="F502" t="n">
+        <v>34839.9248</v>
+      </c>
+      <c r="G502" t="n">
+        <v>-7302490.975819487</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L502" t="n">
+        <v>1</v>
+      </c>
+      <c r="M502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="C503" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="D503" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="E503" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="F503" t="n">
+        <v>432237.7215</v>
+      </c>
+      <c r="G503" t="n">
+        <v>-7302490.975819487</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L503" t="n">
+        <v>1</v>
+      </c>
+      <c r="M503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="C504" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D504" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="E504" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F504" t="n">
+        <v>3434.7422</v>
+      </c>
+      <c r="G504" t="n">
+        <v>-7305925.718019487</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L504" t="n">
+        <v>1</v>
+      </c>
+      <c r="M504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C505" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="D505" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E505" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="F505" t="n">
+        <v>3022.379</v>
+      </c>
+      <c r="G505" t="n">
+        <v>-7302903.339019488</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L505" t="n">
+        <v>1</v>
+      </c>
+      <c r="M505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="C506" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="D506" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="E506" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="F506" t="n">
+        <v>265144.40377101</v>
+      </c>
+      <c r="G506" t="n">
+        <v>-7568047.742790498</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L506" t="n">
+        <v>1</v>
+      </c>
+      <c r="M506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C507" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="D507" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E507" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="F507" t="n">
+        <v>156770.9166</v>
+      </c>
+      <c r="G507" t="n">
+        <v>-7411276.826190498</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L507" t="n">
+        <v>1</v>
+      </c>
+      <c r="M507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="C508" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="D508" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="E508" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="F508" t="n">
+        <v>17644.8002</v>
+      </c>
+      <c r="G508" t="n">
+        <v>-7393632.025990497</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L508" t="n">
+        <v>1</v>
+      </c>
+      <c r="M508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="C509" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="D509" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="E509" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="F509" t="n">
+        <v>55362.25</v>
+      </c>
+      <c r="G509" t="n">
+        <v>-7338269.775990497</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L509" t="n">
+        <v>1</v>
+      </c>
+      <c r="M509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="C510" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D510" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E510" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="F510" t="n">
+        <v>261908.0138</v>
+      </c>
+      <c r="G510" t="n">
+        <v>-7076361.762190497</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L510" t="n">
+        <v>1</v>
+      </c>
+      <c r="M510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C511" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D511" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E511" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F511" t="n">
+        <v>590497.03683789</v>
+      </c>
+      <c r="G511" t="n">
+        <v>-7076361.762190497</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L511" t="n">
+        <v>1</v>
+      </c>
+      <c r="M511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="C512" t="n">
+        <v>16</v>
+      </c>
+      <c r="D512" t="n">
+        <v>16</v>
+      </c>
+      <c r="E512" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F512" t="n">
+        <v>53858.37206211</v>
+      </c>
+      <c r="G512" t="n">
+        <v>-7022503.390128387</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L512" t="n">
+        <v>1</v>
+      </c>
+      <c r="M512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>16</v>
+      </c>
+      <c r="C513" t="n">
+        <v>16</v>
+      </c>
+      <c r="D513" t="n">
+        <v>16</v>
+      </c>
+      <c r="E513" t="n">
+        <v>16</v>
+      </c>
+      <c r="F513" t="n">
+        <v>582221.3756</v>
+      </c>
+      <c r="G513" t="n">
+        <v>-7022503.390128387</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L513" t="n">
+        <v>1</v>
+      </c>
+      <c r="M513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>16</v>
+      </c>
+      <c r="C514" t="n">
+        <v>16</v>
+      </c>
+      <c r="D514" t="n">
+        <v>16</v>
+      </c>
+      <c r="E514" t="n">
+        <v>16</v>
+      </c>
+      <c r="F514" t="n">
+        <v>18436</v>
+      </c>
+      <c r="G514" t="n">
+        <v>-7022503.390128387</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L514" t="n">
+        <v>1</v>
+      </c>
+      <c r="M514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>16</v>
+      </c>
+      <c r="C515" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D515" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E515" t="n">
+        <v>16</v>
+      </c>
+      <c r="F515" t="n">
+        <v>28657.17575858</v>
+      </c>
+      <c r="G515" t="n">
+        <v>-6993846.214369807</v>
+      </c>
+      <c r="H515" t="n">
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L515" t="n">
+        <v>1</v>
+      </c>
+      <c r="M515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C516" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="D516" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="E516" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="F516" t="n">
+        <v>241564.0002</v>
+      </c>
+      <c r="G516" t="n">
+        <v>-7235410.214569807</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L516" t="n">
+        <v>1</v>
+      </c>
+      <c r="M516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="C517" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D517" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E517" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F517" t="n">
+        <v>30326.3466</v>
+      </c>
+      <c r="G517" t="n">
+        <v>-7205083.867969807</v>
+      </c>
+      <c r="H517" t="n">
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L517" t="n">
+        <v>1</v>
+      </c>
+      <c r="M517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="C518" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D518" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E518" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="F518" t="n">
+        <v>226444.0758</v>
+      </c>
+      <c r="G518" t="n">
+        <v>-7431527.943769807</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L518" t="n">
+        <v>1</v>
+      </c>
+      <c r="M518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>16</v>
+      </c>
+      <c r="C519" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D519" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E519" t="n">
+        <v>16</v>
+      </c>
+      <c r="F519" t="n">
+        <v>94645.1547</v>
+      </c>
+      <c r="G519" t="n">
+        <v>-7336882.789069807</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L519" t="n">
+        <v>1</v>
+      </c>
+      <c r="M519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C520" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D520" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E520" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="F520" t="n">
+        <v>42427.0211</v>
+      </c>
+      <c r="G520" t="n">
+        <v>-7336882.789069807</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L520" t="n">
+        <v>1</v>
+      </c>
+      <c r="M520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C521" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D521" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="E521" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F521" t="n">
+        <v>18952.6483</v>
+      </c>
+      <c r="G521" t="n">
+        <v>-7355835.437369807</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L521" t="n">
+        <v>1</v>
+      </c>
+      <c r="M521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C522" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D522" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="E522" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="F522" t="n">
+        <v>187806.9952</v>
+      </c>
+      <c r="G522" t="n">
+        <v>-7543642.432569806</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L522" t="n">
+        <v>1</v>
+      </c>
+      <c r="M522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="C523" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D523" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="E523" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="F523" t="n">
+        <v>60908.4529</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-7543642.432569806</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L523" t="n">
+        <v>1</v>
+      </c>
+      <c r="M523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="C524" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D524" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="E524" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="F524" t="n">
+        <v>198305.3572</v>
+      </c>
+      <c r="G524" t="n">
+        <v>-7345337.075369806</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L524" t="n">
+        <v>1</v>
+      </c>
+      <c r="M524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C525" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D525" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="E525" t="n">
+        <v>15.97</v>
+      </c>
+      <c r="F525" t="n">
+        <v>123384.5449</v>
+      </c>
+      <c r="G525" t="n">
+        <v>-7345337.075369806</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L525" t="n">
+        <v>1</v>
+      </c>
+      <c r="M525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C526" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D526" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E526" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="F526" t="n">
+        <v>193522.82755966</v>
+      </c>
+      <c r="G526" t="n">
+        <v>-7151814.247810146</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L526" t="n">
+        <v>1</v>
+      </c>
+      <c r="M526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>16</v>
+      </c>
+      <c r="C527" t="n">
+        <v>16</v>
+      </c>
+      <c r="D527" t="n">
+        <v>16</v>
+      </c>
+      <c r="E527" t="n">
+        <v>16</v>
+      </c>
+      <c r="F527" t="n">
+        <v>51100</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-7100714.247810146</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L527" t="n">
+        <v>1</v>
+      </c>
+      <c r="M527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>16</v>
+      </c>
+      <c r="C528" t="n">
+        <v>16</v>
+      </c>
+      <c r="D528" t="n">
+        <v>16</v>
+      </c>
+      <c r="E528" t="n">
+        <v>16</v>
+      </c>
+      <c r="F528" t="n">
+        <v>13403.99</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-7100714.247810146</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L528" t="n">
+        <v>1</v>
+      </c>
+      <c r="M528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>16</v>
+      </c>
+      <c r="C529" t="n">
+        <v>16</v>
+      </c>
+      <c r="D529" t="n">
+        <v>16</v>
+      </c>
+      <c r="E529" t="n">
+        <v>16</v>
+      </c>
+      <c r="F529" t="n">
+        <v>377.9856</v>
+      </c>
+      <c r="G529" t="n">
+        <v>-7100714.247810146</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L529" t="n">
+        <v>1</v>
+      </c>
+      <c r="M529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="C530" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D530" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E530" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F530" t="n">
+        <v>65399.9403</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-7166114.188110146</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="C531" t="n">
+        <v>16</v>
+      </c>
+      <c r="D531" t="n">
+        <v>16</v>
+      </c>
+      <c r="E531" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F531" t="n">
+        <v>300634.8068</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-6865479.381310145</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>16</v>
+      </c>
+      <c r="C532" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D532" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E532" t="n">
+        <v>16</v>
+      </c>
+      <c r="F532" t="n">
+        <v>151668.4055</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-6713810.975810145</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C533" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D533" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E533" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="F533" t="n">
+        <v>167383.51</v>
+      </c>
+      <c r="G533" t="n">
+        <v>-6713810.975810145</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L533" t="n">
+        <v>1</v>
+      </c>
+      <c r="M533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C534" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D534" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E534" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="F534" t="n">
+        <v>386793.45931379</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-6713810.975810145</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C535" t="n">
+        <v>16</v>
+      </c>
+      <c r="D535" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E535" t="n">
+        <v>16</v>
+      </c>
+      <c r="F535" t="n">
+        <v>207550.2443</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-6921361.220110145</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L535" t="n">
+        <v>1</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>16</v>
+      </c>
+      <c r="C536" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D536" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E536" t="n">
+        <v>16</v>
+      </c>
+      <c r="F536" t="n">
+        <v>184148.3545</v>
+      </c>
+      <c r="G536" t="n">
+        <v>-6737212.865610145</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C537" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D537" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E537" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F537" t="n">
+        <v>58138.9356</v>
+      </c>
+      <c r="G537" t="n">
+        <v>-6737212.865610145</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C538" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D538" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E538" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F538" t="n">
+        <v>148087.8859</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-6737212.865610145</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C539" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D539" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E539" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F539" t="n">
+        <v>555.63</v>
+      </c>
+      <c r="G539" t="n">
+        <v>-6737212.865610145</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>16</v>
+      </c>
+      <c r="C540" t="n">
+        <v>16</v>
+      </c>
+      <c r="D540" t="n">
+        <v>16</v>
+      </c>
+      <c r="E540" t="n">
+        <v>16</v>
+      </c>
+      <c r="F540" t="n">
+        <v>140971.43</v>
+      </c>
+      <c r="G540" t="n">
+        <v>-6878184.295610145</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>16</v>
+      </c>
+      <c r="C541" t="n">
+        <v>16</v>
+      </c>
+      <c r="D541" t="n">
+        <v>16</v>
+      </c>
+      <c r="E541" t="n">
+        <v>16</v>
+      </c>
+      <c r="F541" t="n">
+        <v>21987.7984</v>
+      </c>
+      <c r="G541" t="n">
+        <v>-6878184.295610145</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C542" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D542" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="E542" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F542" t="n">
+        <v>31040.0695</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-6909224.365110145</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L542" t="n">
+        <v>1</v>
+      </c>
+      <c r="M542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C543" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D543" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="E543" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F543" t="n">
+        <v>190549.9275</v>
+      </c>
+      <c r="G543" t="n">
+        <v>-6909224.365110145</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L543" t="n">
+        <v>1</v>
+      </c>
+      <c r="M543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C544" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D544" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E544" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="F544" t="n">
+        <v>173878.2894</v>
+      </c>
+      <c r="G544" t="n">
+        <v>-6735346.075710145</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L544" t="n">
+        <v>1</v>
+      </c>
+      <c r="M544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C545" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D545" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E545" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="F545" t="n">
+        <v>126489.4667</v>
+      </c>
+      <c r="G545" t="n">
+        <v>-6861835.542410145</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L545" t="n">
+        <v>1</v>
+      </c>
+      <c r="M545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C546" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D546" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E546" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F546" t="n">
+        <v>380969.0686</v>
+      </c>
+      <c r="G546" t="n">
+        <v>-6861835.542410145</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L546" t="n">
+        <v>1</v>
+      </c>
+      <c r="M546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>16</v>
+      </c>
+      <c r="C547" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D547" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E547" t="n">
+        <v>16</v>
+      </c>
+      <c r="F547" t="n">
+        <v>328100.8171</v>
+      </c>
+      <c r="G547" t="n">
+        <v>-6861835.542410145</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L547" t="n">
+        <v>1</v>
+      </c>
+      <c r="M547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C548" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D548" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E548" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="F548" t="n">
+        <v>191351.5469</v>
+      </c>
+      <c r="G548" t="n">
+        <v>-6861835.542410145</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L548" t="n">
+        <v>1</v>
+      </c>
+      <c r="M548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C549" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D549" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E549" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="F549" t="n">
+        <v>660046.9499</v>
+      </c>
+      <c r="G549" t="n">
+        <v>-6861835.542410145</v>
+      </c>
+      <c r="H549" t="n">
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L549" t="n">
+        <v>1</v>
+      </c>
+      <c r="M549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C550" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="D550" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E550" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F550" t="n">
+        <v>26343.9836</v>
+      </c>
+      <c r="G550" t="n">
+        <v>-6861835.542410145</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L550" t="n">
+        <v>1</v>
+      </c>
+      <c r="M550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C551" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D551" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E551" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F551" t="n">
+        <v>7411.5679</v>
+      </c>
+      <c r="G551" t="n">
+        <v>-6854423.974510144</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L551" t="n">
+        <v>1</v>
+      </c>
+      <c r="M551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C552" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D552" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E552" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F552" t="n">
+        <v>291228.1518</v>
+      </c>
+      <c r="G552" t="n">
+        <v>-6854423.974510144</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
+      <c r="M552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="C553" t="n">
+        <v>16</v>
+      </c>
+      <c r="D553" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E553" t="n">
+        <v>16</v>
+      </c>
+      <c r="F553" t="n">
+        <v>69825.75780000001</v>
+      </c>
+      <c r="G553" t="n">
+        <v>-6924249.732310144</v>
+      </c>
+      <c r="H553" t="n">
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L553" t="n">
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>16</v>
+      </c>
+      <c r="C554" t="n">
+        <v>16</v>
+      </c>
+      <c r="D554" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E554" t="n">
+        <v>16</v>
+      </c>
+      <c r="F554" t="n">
+        <v>249746.1319</v>
+      </c>
+      <c r="G554" t="n">
+        <v>-6924249.732310144</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L554" t="n">
+        <v>1</v>
+      </c>
+      <c r="M554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>16</v>
+      </c>
+      <c r="C555" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D555" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="E555" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F555" t="n">
+        <v>7463.5676</v>
+      </c>
+      <c r="G555" t="n">
+        <v>-6931713.299910144</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L555" t="n">
+        <v>1</v>
+      </c>
+      <c r="M555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="1" t="n">
+        <v>554</v>
+      </c>
+      <c r="B556" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="C556" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="D556" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="E556" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="F556" t="n">
+        <v>2142.86</v>
+      </c>
+      <c r="G556" t="n">
+        <v>-6931713.299910144</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
+      <c r="M556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="1" t="n">
+        <v>555</v>
+      </c>
+      <c r="B557" t="n">
+        <v>16</v>
+      </c>
+      <c r="C557" t="n">
+        <v>16</v>
+      </c>
+      <c r="D557" t="n">
+        <v>16</v>
+      </c>
+      <c r="E557" t="n">
+        <v>16</v>
+      </c>
+      <c r="F557" t="n">
+        <v>30630.2443</v>
+      </c>
+      <c r="G557" t="n">
+        <v>-6901083.055610144</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L557" t="n">
+        <v>1</v>
+      </c>
+      <c r="M557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="1" t="n">
+        <v>556</v>
+      </c>
+      <c r="B558" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="C558" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D558" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E558" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F558" t="n">
+        <v>12686.5187</v>
+      </c>
+      <c r="G558" t="n">
+        <v>-6913769.574310143</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L558" t="n">
+        <v>1</v>
+      </c>
+      <c r="M558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="1" t="n">
+        <v>557</v>
+      </c>
+      <c r="B559" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="C559" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="D559" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="E559" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F559" t="n">
+        <v>104333.49</v>
+      </c>
+      <c r="G559" t="n">
+        <v>-6913769.574310143</v>
+      </c>
+      <c r="H559" t="n">
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L559" t="n">
+        <v>1</v>
+      </c>
+      <c r="M559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="1" t="n">
+        <v>558</v>
+      </c>
+      <c r="B560" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="C560" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="D560" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="E560" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="F560" t="n">
+        <v>64966.8551</v>
+      </c>
+      <c r="G560" t="n">
+        <v>-6848802.719210143</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L560" t="n">
+        <v>1</v>
+      </c>
+      <c r="M560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="1" t="n">
+        <v>559</v>
+      </c>
+      <c r="B561" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="C561" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="D561" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="E561" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F561" t="n">
+        <v>84187.2853</v>
+      </c>
+      <c r="G561" t="n">
+        <v>-6764615.433910144</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L561" t="n">
+        <v>1</v>
+      </c>
+      <c r="M561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="1" t="n">
+        <v>560</v>
+      </c>
+      <c r="B562" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="C562" t="n">
+        <v>16</v>
+      </c>
+      <c r="D562" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="E562" t="n">
+        <v>16</v>
+      </c>
+      <c r="F562" t="n">
+        <v>146797.9254</v>
+      </c>
+      <c r="G562" t="n">
+        <v>-6911413.359310144</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L562" t="n">
+        <v>1</v>
+      </c>
+      <c r="M562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="1" t="n">
+        <v>561</v>
+      </c>
+      <c r="B563" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="C563" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="D563" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="E563" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="F563" t="n">
+        <v>34.4183</v>
+      </c>
+      <c r="G563" t="n">
+        <v>-6911378.941010144</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L563" t="n">
+        <v>1</v>
+      </c>
+      <c r="M563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="1" t="n">
+        <v>562</v>
+      </c>
+      <c r="B564" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="C564" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D564" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E564" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="F564" t="n">
+        <v>165189.8039</v>
+      </c>
+      <c r="G564" t="n">
+        <v>-6746189.137110144</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L564" t="n">
+        <v>1</v>
+      </c>
+      <c r="M564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="1" t="n">
+        <v>563</v>
+      </c>
+      <c r="B565" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="C565" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="D565" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="E565" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="F565" t="n">
+        <v>716321.09957119</v>
+      </c>
+      <c r="G565" t="n">
+        <v>-6029868.037538954</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L565" t="n">
+        <v>1</v>
+      </c>
+      <c r="M565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="1" t="n">
+        <v>564</v>
+      </c>
+      <c r="B566" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="C566" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="D566" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="E566" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="F566" t="n">
+        <v>510944.0102</v>
+      </c>
+      <c r="G566" t="n">
+        <v>-5518924.027338954</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L566" t="n">
+        <v>1</v>
+      </c>
+      <c r="M566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="1" t="n">
+        <v>565</v>
+      </c>
+      <c r="B567" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="C567" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="D567" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="E567" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="F567" t="n">
+        <v>62810.9881</v>
+      </c>
+      <c r="G567" t="n">
+        <v>-5581735.015438953</v>
+      </c>
+      <c r="H567" t="n">
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L567" t="n">
+        <v>1</v>
+      </c>
+      <c r="M567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="1" t="n">
+        <v>566</v>
+      </c>
+      <c r="B568" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="C568" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="D568" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="E568" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="F568" t="n">
+        <v>198508.6832</v>
+      </c>
+      <c r="G568" t="n">
+        <v>-5581735.015438953</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L568" t="n">
+        <v>1</v>
+      </c>
+      <c r="M568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="1" t="n">
+        <v>567</v>
+      </c>
+      <c r="B569" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="C569" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="D569" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="E569" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="F569" t="n">
+        <v>20543.7227</v>
+      </c>
+      <c r="G569" t="n">
+        <v>-5561191.292738954</v>
+      </c>
+      <c r="H569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="C570" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="D570" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="E570" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F570" t="n">
+        <v>69927.5652</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-5491263.727538954</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="C571" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="D571" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="E571" t="n">
+        <v>16.14</v>
+      </c>
+      <c r="F571" t="n">
+        <v>245413.1154</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-5245850.612138953</v>
+      </c>
+      <c r="H571" t="n">
         <v>2</v>
       </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="K571" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L497" t="inlineStr"/>
-      <c r="M497" t="inlineStr"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="C498" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D498" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="E498" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F498" t="n">
-        <v>580339.0723</v>
-      </c>
-      <c r="G498" t="n">
-        <v>-7652986.999419486</v>
-      </c>
-      <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="n">
-        <v>1</v>
-      </c>
-      <c r="M498" t="inlineStr"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="C499" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="D499" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="E499" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="F499" t="n">
-        <v>377196.1806</v>
-      </c>
-      <c r="G499" t="n">
-        <v>-7275790.818819487</v>
-      </c>
-      <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="n">
-        <v>1</v>
-      </c>
-      <c r="M499" t="inlineStr"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="C500" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="D500" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="E500" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="F500" t="n">
-        <v>804133.3827</v>
-      </c>
-      <c r="G500" t="n">
-        <v>-7275790.818819487</v>
-      </c>
-      <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="n">
-        <v>1</v>
-      </c>
-      <c r="M500" t="inlineStr"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="C501" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="D501" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="E501" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="F501" t="n">
-        <v>8139.7678</v>
-      </c>
-      <c r="G501" t="n">
-        <v>-7267651.051019487</v>
-      </c>
-      <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="n">
-        <v>1</v>
-      </c>
-      <c r="M501" t="inlineStr"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="C502" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="D502" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="E502" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="F502" t="n">
-        <v>34839.9248</v>
-      </c>
-      <c r="G502" t="n">
-        <v>-7302490.975819487</v>
-      </c>
-      <c r="H502" t="n">
-        <v>2</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="n">
-        <v>1</v>
-      </c>
-      <c r="M502" t="inlineStr"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="C503" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="D503" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="E503" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="F503" t="n">
-        <v>432237.7215</v>
-      </c>
-      <c r="G503" t="n">
-        <v>-7302490.975819487</v>
-      </c>
-      <c r="H503" t="n">
-        <v>2</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="n">
-        <v>1</v>
-      </c>
-      <c r="M503" t="inlineStr"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="C504" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D504" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="E504" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F504" t="n">
-        <v>3434.7422</v>
-      </c>
-      <c r="G504" t="n">
-        <v>-7305925.718019487</v>
-      </c>
-      <c r="H504" t="n">
-        <v>2</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="n">
-        <v>1</v>
-      </c>
-      <c r="M504" t="inlineStr"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="C505" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="D505" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="E505" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="F505" t="n">
-        <v>3022.379</v>
-      </c>
-      <c r="G505" t="n">
-        <v>-7302903.339019488</v>
-      </c>
-      <c r="H505" t="n">
-        <v>2</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="n">
-        <v>1</v>
-      </c>
-      <c r="M505" t="inlineStr"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="C506" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="D506" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="E506" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="F506" t="n">
-        <v>265144.40377101</v>
-      </c>
-      <c r="G506" t="n">
-        <v>-7568047.742790498</v>
-      </c>
-      <c r="H506" t="n">
-        <v>2</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="n">
-        <v>1</v>
-      </c>
-      <c r="M506" t="inlineStr"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="C507" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="D507" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="E507" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="F507" t="n">
-        <v>156770.9166</v>
-      </c>
-      <c r="G507" t="n">
-        <v>-7411276.826190498</v>
-      </c>
-      <c r="H507" t="n">
-        <v>2</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="n">
-        <v>1</v>
-      </c>
-      <c r="M507" t="inlineStr"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="C508" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="D508" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="E508" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="F508" t="n">
-        <v>17644.8002</v>
-      </c>
-      <c r="G508" t="n">
-        <v>-7393632.025990497</v>
-      </c>
-      <c r="H508" t="n">
-        <v>2</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="n">
-        <v>1</v>
-      </c>
-      <c r="M508" t="inlineStr"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="C509" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="D509" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="E509" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="F509" t="n">
-        <v>55362.25</v>
-      </c>
-      <c r="G509" t="n">
-        <v>-7338269.775990497</v>
-      </c>
-      <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="n">
-        <v>1</v>
-      </c>
-      <c r="M509" t="inlineStr"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="C510" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D510" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E510" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="F510" t="n">
-        <v>261908.0138</v>
-      </c>
-      <c r="G510" t="n">
-        <v>-7076361.762190497</v>
-      </c>
-      <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="n">
-        <v>1</v>
-      </c>
-      <c r="M510" t="inlineStr"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C511" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D511" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E511" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F511" t="n">
-        <v>590497.03683789</v>
-      </c>
-      <c r="G511" t="n">
-        <v>-7076361.762190497</v>
-      </c>
-      <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="n">
-        <v>1</v>
-      </c>
-      <c r="M511" t="inlineStr"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C512" t="n">
-        <v>16</v>
-      </c>
-      <c r="D512" t="n">
-        <v>16</v>
-      </c>
-      <c r="E512" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F512" t="n">
-        <v>53858.37206211</v>
-      </c>
-      <c r="G512" t="n">
-        <v>-7022503.390128387</v>
-      </c>
-      <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="n">
-        <v>1</v>
-      </c>
-      <c r="M512" t="inlineStr"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>16</v>
-      </c>
-      <c r="C513" t="n">
-        <v>16</v>
-      </c>
-      <c r="D513" t="n">
-        <v>16</v>
-      </c>
-      <c r="E513" t="n">
-        <v>16</v>
-      </c>
-      <c r="F513" t="n">
-        <v>582221.3756</v>
-      </c>
-      <c r="G513" t="n">
-        <v>-7022503.390128387</v>
-      </c>
-      <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="n">
-        <v>1</v>
-      </c>
-      <c r="M513" t="inlineStr"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="n">
-        <v>16</v>
-      </c>
-      <c r="C514" t="n">
-        <v>16</v>
-      </c>
-      <c r="D514" t="n">
-        <v>16</v>
-      </c>
-      <c r="E514" t="n">
-        <v>16</v>
-      </c>
-      <c r="F514" t="n">
-        <v>18436</v>
-      </c>
-      <c r="G514" t="n">
-        <v>-7022503.390128387</v>
-      </c>
-      <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="n">
-        <v>1</v>
-      </c>
-      <c r="M514" t="inlineStr"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="n">
-        <v>16</v>
-      </c>
-      <c r="C515" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D515" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E515" t="n">
-        <v>16</v>
-      </c>
-      <c r="F515" t="n">
-        <v>28657.17575858</v>
-      </c>
-      <c r="G515" t="n">
-        <v>-6993846.214369807</v>
-      </c>
-      <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="n">
-        <v>1</v>
-      </c>
-      <c r="M515" t="inlineStr"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C516" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="D516" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="E516" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="F516" t="n">
-        <v>241564.0002</v>
-      </c>
-      <c r="G516" t="n">
-        <v>-7235410.214569807</v>
-      </c>
-      <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="n">
-        <v>1</v>
-      </c>
-      <c r="M516" t="inlineStr"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C517" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D517" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E517" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F517" t="n">
-        <v>30326.3466</v>
-      </c>
-      <c r="G517" t="n">
-        <v>-7205083.867969807</v>
-      </c>
-      <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="n">
-        <v>1</v>
-      </c>
-      <c r="M517" t="inlineStr"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C518" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="D518" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E518" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="F518" t="n">
-        <v>226444.0758</v>
-      </c>
-      <c r="G518" t="n">
-        <v>-7431527.943769807</v>
-      </c>
-      <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="n">
-        <v>1</v>
-      </c>
-      <c r="M518" t="inlineStr"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="n">
-        <v>16</v>
-      </c>
-      <c r="C519" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D519" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E519" t="n">
-        <v>16</v>
-      </c>
-      <c r="F519" t="n">
-        <v>94645.1547</v>
-      </c>
-      <c r="G519" t="n">
-        <v>-7336882.789069807</v>
-      </c>
-      <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="n">
-        <v>1</v>
-      </c>
-      <c r="M519" t="inlineStr"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C520" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D520" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E520" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="F520" t="n">
-        <v>42427.0211</v>
-      </c>
-      <c r="G520" t="n">
-        <v>-7336882.789069807</v>
-      </c>
-      <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="n">
-        <v>1</v>
-      </c>
-      <c r="M520" t="inlineStr"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C521" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="D521" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="E521" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F521" t="n">
-        <v>18952.6483</v>
-      </c>
-      <c r="G521" t="n">
-        <v>-7355835.437369807</v>
-      </c>
-      <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="n">
-        <v>1</v>
-      </c>
-      <c r="M521" t="inlineStr"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="C522" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="D522" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="E522" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="F522" t="n">
-        <v>187806.9952</v>
-      </c>
-      <c r="G522" t="n">
-        <v>-7543642.432569806</v>
-      </c>
-      <c r="H522" t="n">
-        <v>2</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="n">
-        <v>1</v>
-      </c>
-      <c r="M522" t="inlineStr"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="C523" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="D523" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="E523" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="F523" t="n">
-        <v>60908.4529</v>
-      </c>
-      <c r="G523" t="n">
-        <v>-7543642.432569806</v>
-      </c>
-      <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="n">
-        <v>1</v>
-      </c>
-      <c r="M523" t="inlineStr"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="C524" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="D524" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="E524" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="F524" t="n">
-        <v>198305.3572</v>
-      </c>
-      <c r="G524" t="n">
-        <v>-7345337.075369806</v>
-      </c>
-      <c r="H524" t="n">
-        <v>2</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="n">
-        <v>1</v>
-      </c>
-      <c r="M524" t="inlineStr"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C525" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="D525" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="E525" t="n">
-        <v>15.97</v>
-      </c>
-      <c r="F525" t="n">
-        <v>123384.5449</v>
-      </c>
-      <c r="G525" t="n">
-        <v>-7345337.075369806</v>
-      </c>
-      <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="n">
-        <v>1</v>
-      </c>
-      <c r="M525" t="inlineStr"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C526" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D526" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E526" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="F526" t="n">
-        <v>193522.82755966</v>
-      </c>
-      <c r="G526" t="n">
-        <v>-7151814.247810146</v>
-      </c>
-      <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="n">
-        <v>1</v>
-      </c>
-      <c r="M526" t="inlineStr"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>16</v>
-      </c>
-      <c r="C527" t="n">
-        <v>16</v>
-      </c>
-      <c r="D527" t="n">
-        <v>16</v>
-      </c>
-      <c r="E527" t="n">
-        <v>16</v>
-      </c>
-      <c r="F527" t="n">
-        <v>51100</v>
-      </c>
-      <c r="G527" t="n">
-        <v>-7100714.247810146</v>
-      </c>
-      <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="n">
-        <v>1</v>
-      </c>
-      <c r="M527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>16</v>
-      </c>
-      <c r="C528" t="n">
-        <v>16</v>
-      </c>
-      <c r="D528" t="n">
-        <v>16</v>
-      </c>
-      <c r="E528" t="n">
-        <v>16</v>
-      </c>
-      <c r="F528" t="n">
-        <v>13403.99</v>
-      </c>
-      <c r="G528" t="n">
-        <v>-7100714.247810146</v>
-      </c>
-      <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="n">
-        <v>1</v>
-      </c>
-      <c r="M528" t="inlineStr"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>16</v>
-      </c>
-      <c r="C529" t="n">
-        <v>16</v>
-      </c>
-      <c r="D529" t="n">
-        <v>16</v>
-      </c>
-      <c r="E529" t="n">
-        <v>16</v>
-      </c>
-      <c r="F529" t="n">
-        <v>377.9856</v>
-      </c>
-      <c r="G529" t="n">
-        <v>-7100714.247810146</v>
-      </c>
-      <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="n">
-        <v>1</v>
-      </c>
-      <c r="M529" t="inlineStr"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C530" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D530" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E530" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F530" t="n">
-        <v>65399.9403</v>
-      </c>
-      <c r="G530" t="n">
-        <v>-7166114.188110146</v>
-      </c>
-      <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C531" t="n">
-        <v>16</v>
-      </c>
-      <c r="D531" t="n">
-        <v>16</v>
-      </c>
-      <c r="E531" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F531" t="n">
-        <v>300634.8068</v>
-      </c>
-      <c r="G531" t="n">
-        <v>-6865479.381310145</v>
-      </c>
-      <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>16</v>
-      </c>
-      <c r="C532" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D532" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E532" t="n">
-        <v>16</v>
-      </c>
-      <c r="F532" t="n">
-        <v>151668.4055</v>
-      </c>
-      <c r="G532" t="n">
-        <v>-6713810.975810145</v>
-      </c>
-      <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C533" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D533" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E533" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="F533" t="n">
-        <v>167383.51</v>
-      </c>
-      <c r="G533" t="n">
-        <v>-6713810.975810145</v>
-      </c>
-      <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="n">
-        <v>1</v>
-      </c>
-      <c r="M533" t="inlineStr"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C534" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D534" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E534" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="F534" t="n">
-        <v>386793.45931379</v>
-      </c>
-      <c r="G534" t="n">
-        <v>-6713810.975810145</v>
-      </c>
-      <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C535" t="n">
-        <v>16</v>
-      </c>
-      <c r="D535" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E535" t="n">
-        <v>16</v>
-      </c>
-      <c r="F535" t="n">
-        <v>207550.2443</v>
-      </c>
-      <c r="G535" t="n">
-        <v>-6921361.220110145</v>
-      </c>
-      <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>16</v>
-      </c>
-      <c r="C536" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D536" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E536" t="n">
-        <v>16</v>
-      </c>
-      <c r="F536" t="n">
-        <v>184148.3545</v>
-      </c>
-      <c r="G536" t="n">
-        <v>-6737212.865610145</v>
-      </c>
-      <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C537" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D537" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E537" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F537" t="n">
-        <v>58138.9356</v>
-      </c>
-      <c r="G537" t="n">
-        <v>-6737212.865610145</v>
-      </c>
-      <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C538" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D538" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E538" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F538" t="n">
-        <v>148087.8859</v>
-      </c>
-      <c r="G538" t="n">
-        <v>-6737212.865610145</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C539" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D539" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E539" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F539" t="n">
-        <v>555.63</v>
-      </c>
-      <c r="G539" t="n">
-        <v>-6737212.865610145</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>16</v>
-      </c>
-      <c r="C540" t="n">
-        <v>16</v>
-      </c>
-      <c r="D540" t="n">
-        <v>16</v>
-      </c>
-      <c r="E540" t="n">
-        <v>16</v>
-      </c>
-      <c r="F540" t="n">
-        <v>140971.43</v>
-      </c>
-      <c r="G540" t="n">
-        <v>-6878184.295610145</v>
-      </c>
-      <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>16</v>
-      </c>
-      <c r="C541" t="n">
-        <v>16</v>
-      </c>
-      <c r="D541" t="n">
-        <v>16</v>
-      </c>
-      <c r="E541" t="n">
-        <v>16</v>
-      </c>
-      <c r="F541" t="n">
-        <v>21987.7984</v>
-      </c>
-      <c r="G541" t="n">
-        <v>-6878184.295610145</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C542" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="D542" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="E542" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F542" t="n">
-        <v>31040.0695</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-6909224.365110145</v>
-      </c>
-      <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
-      <c r="L542" t="n">
-        <v>1</v>
-      </c>
-      <c r="M542" t="inlineStr"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C543" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="D543" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="E543" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F543" t="n">
-        <v>190549.9275</v>
-      </c>
-      <c r="G543" t="n">
-        <v>-6909224.365110145</v>
-      </c>
-      <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
-      <c r="L543" t="n">
-        <v>1</v>
-      </c>
-      <c r="M543" t="inlineStr"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="C544" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D544" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E544" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="F544" t="n">
-        <v>173878.2894</v>
-      </c>
-      <c r="G544" t="n">
-        <v>-6735346.075710145</v>
-      </c>
-      <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
-      <c r="L544" t="n">
-        <v>1</v>
-      </c>
-      <c r="M544" t="inlineStr"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C545" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D545" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E545" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="F545" t="n">
-        <v>126489.4667</v>
-      </c>
-      <c r="G545" t="n">
-        <v>-6861835.542410145</v>
-      </c>
-      <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
-      <c r="L545" t="n">
-        <v>1</v>
-      </c>
-      <c r="M545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C546" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D546" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E546" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F546" t="n">
-        <v>380969.0686</v>
-      </c>
-      <c r="G546" t="n">
-        <v>-6861835.542410145</v>
-      </c>
-      <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
-      <c r="L546" t="n">
-        <v>1</v>
-      </c>
-      <c r="M546" t="inlineStr"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>16</v>
-      </c>
-      <c r="C547" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D547" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E547" t="n">
-        <v>16</v>
-      </c>
-      <c r="F547" t="n">
-        <v>328100.8171</v>
-      </c>
-      <c r="G547" t="n">
-        <v>-6861835.542410145</v>
-      </c>
-      <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
-      <c r="L547" t="n">
-        <v>1</v>
-      </c>
-      <c r="M547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C548" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D548" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E548" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="F548" t="n">
-        <v>191351.5469</v>
-      </c>
-      <c r="G548" t="n">
-        <v>-6861835.542410145</v>
-      </c>
-      <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
-      <c r="L548" t="n">
-        <v>1</v>
-      </c>
-      <c r="M548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C549" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D549" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E549" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="F549" t="n">
-        <v>660046.9499</v>
-      </c>
-      <c r="G549" t="n">
-        <v>-6861835.542410145</v>
-      </c>
-      <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
-      <c r="L549" t="n">
-        <v>1</v>
-      </c>
-      <c r="M549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C550" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="D550" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E550" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F550" t="n">
-        <v>26343.9836</v>
-      </c>
-      <c r="G550" t="n">
-        <v>-6861835.542410145</v>
-      </c>
-      <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
-      <c r="L550" t="n">
-        <v>1</v>
-      </c>
-      <c r="M550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C551" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D551" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E551" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F551" t="n">
-        <v>7411.5679</v>
-      </c>
-      <c r="G551" t="n">
-        <v>-6854423.974510144</v>
-      </c>
-      <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
-      <c r="M551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C552" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D552" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E552" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F552" t="n">
-        <v>291228.1518</v>
-      </c>
-      <c r="G552" t="n">
-        <v>-6854423.974510144</v>
-      </c>
-      <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
-      <c r="L552" t="n">
-        <v>1</v>
-      </c>
-      <c r="M552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="C553" t="n">
-        <v>16</v>
-      </c>
-      <c r="D553" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E553" t="n">
-        <v>16</v>
-      </c>
-      <c r="F553" t="n">
-        <v>69825.75780000001</v>
-      </c>
-      <c r="G553" t="n">
-        <v>-6924249.732310144</v>
-      </c>
-      <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
-      <c r="L553" t="n">
-        <v>1</v>
-      </c>
-      <c r="M553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>16</v>
-      </c>
-      <c r="C554" t="n">
-        <v>16</v>
-      </c>
-      <c r="D554" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E554" t="n">
-        <v>16</v>
-      </c>
-      <c r="F554" t="n">
-        <v>249746.1319</v>
-      </c>
-      <c r="G554" t="n">
-        <v>-6924249.732310144</v>
-      </c>
-      <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
-      <c r="L554" t="n">
-        <v>1</v>
-      </c>
-      <c r="M554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>16</v>
-      </c>
-      <c r="C555" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="D555" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="E555" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F555" t="n">
-        <v>7463.5676</v>
-      </c>
-      <c r="G555" t="n">
-        <v>-6931713.299910144</v>
-      </c>
-      <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
-      <c r="L555" t="n">
-        <v>1</v>
-      </c>
-      <c r="M555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="C556" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="D556" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="E556" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="F556" t="n">
-        <v>2142.86</v>
-      </c>
-      <c r="G556" t="n">
-        <v>-6931713.299910144</v>
-      </c>
-      <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
-      <c r="M556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>16</v>
-      </c>
-      <c r="C557" t="n">
-        <v>16</v>
-      </c>
-      <c r="D557" t="n">
-        <v>16</v>
-      </c>
-      <c r="E557" t="n">
-        <v>16</v>
-      </c>
-      <c r="F557" t="n">
-        <v>30630.2443</v>
-      </c>
-      <c r="G557" t="n">
-        <v>-6901083.055610144</v>
-      </c>
-      <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
-      <c r="L557" t="n">
-        <v>1</v>
-      </c>
-      <c r="M557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C558" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D558" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E558" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F558" t="n">
-        <v>12686.5187</v>
-      </c>
-      <c r="G558" t="n">
-        <v>-6913769.574310143</v>
-      </c>
-      <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
-      <c r="L558" t="n">
-        <v>1</v>
-      </c>
-      <c r="M558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C559" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="D559" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="E559" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F559" t="n">
-        <v>104333.49</v>
-      </c>
-      <c r="G559" t="n">
-        <v>-6913769.574310143</v>
-      </c>
-      <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
-      <c r="L559" t="n">
-        <v>1</v>
-      </c>
-      <c r="M559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="C560" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="D560" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="E560" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="F560" t="n">
-        <v>64966.8551</v>
-      </c>
-      <c r="G560" t="n">
-        <v>-6848802.719210143</v>
-      </c>
-      <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
-      <c r="L560" t="n">
-        <v>1</v>
-      </c>
-      <c r="M560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="C561" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="D561" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="E561" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="F561" t="n">
-        <v>84187.2853</v>
-      </c>
-      <c r="G561" t="n">
-        <v>-6764615.433910144</v>
-      </c>
-      <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
-      <c r="L561" t="n">
-        <v>1</v>
-      </c>
-      <c r="M561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="C562" t="n">
-        <v>16</v>
-      </c>
-      <c r="D562" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="E562" t="n">
-        <v>16</v>
-      </c>
-      <c r="F562" t="n">
-        <v>146797.9254</v>
-      </c>
-      <c r="G562" t="n">
-        <v>-6911413.359310144</v>
-      </c>
-      <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
-      <c r="L562" t="n">
-        <v>1</v>
-      </c>
-      <c r="M562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="C563" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="D563" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="E563" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="F563" t="n">
-        <v>34.4183</v>
-      </c>
-      <c r="G563" t="n">
-        <v>-6911378.941010144</v>
-      </c>
-      <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
-      <c r="L563" t="n">
-        <v>1</v>
-      </c>
-      <c r="M563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="C564" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D564" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="E564" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="F564" t="n">
-        <v>165189.8039</v>
-      </c>
-      <c r="G564" t="n">
-        <v>-6746189.137110144</v>
-      </c>
-      <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
-      <c r="L564" t="n">
-        <v>1</v>
-      </c>
-      <c r="M564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="C565" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="D565" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="E565" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="F565" t="n">
-        <v>716321.09957119</v>
-      </c>
-      <c r="G565" t="n">
-        <v>-6029868.037538954</v>
-      </c>
-      <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
-      <c r="L565" t="n">
-        <v>1</v>
-      </c>
-      <c r="M565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="C566" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="D566" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="E566" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="F566" t="n">
-        <v>510944.0102</v>
-      </c>
-      <c r="G566" t="n">
-        <v>-5518924.027338954</v>
-      </c>
-      <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
-      <c r="L566" t="n">
-        <v>1</v>
-      </c>
-      <c r="M566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="C567" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="D567" t="n">
-        <v>16.11</v>
-      </c>
-      <c r="E567" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="F567" t="n">
-        <v>62810.9881</v>
-      </c>
-      <c r="G567" t="n">
-        <v>-5581735.015438953</v>
-      </c>
-      <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
-      <c r="L567" t="n">
-        <v>1</v>
-      </c>
-      <c r="M567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="C568" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="D568" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E568" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="F568" t="n">
-        <v>198508.6832</v>
-      </c>
-      <c r="G568" t="n">
-        <v>-5581735.015438953</v>
-      </c>
-      <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
-      <c r="L568" t="n">
-        <v>1</v>
-      </c>
-      <c r="M568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="C569" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="D569" t="n">
-        <v>16.12</v>
-      </c>
-      <c r="E569" t="n">
-        <v>16.09</v>
-      </c>
-      <c r="F569" t="n">
-        <v>20543.7227</v>
-      </c>
-      <c r="G569" t="n">
-        <v>-5561191.292738954</v>
-      </c>
-      <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="C570" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="D570" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="E570" t="n">
-        <v>16.13</v>
-      </c>
-      <c r="F570" t="n">
-        <v>69927.5652</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-5491263.727538954</v>
-      </c>
-      <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="C571" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="D571" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="E571" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="F571" t="n">
-        <v>245413.1154</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-5245850.612138953</v>
-      </c>
-      <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
-        <v>1</v>
+        <v>1.032844772289929</v>
       </c>
       <c r="M571" t="inlineStr"/>
     </row>
@@ -19621,7 +20207,7 @@
         <v>-5334516.742638953</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19654,7 +20240,7 @@
         <v>-5305969.058638953</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19687,7 +20273,7 @@
         <v>-5405869.058638953</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19720,7 +20306,7 @@
         <v>-5405869.058638953</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19753,7 +20339,7 @@
         <v>-5311477.091056933</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19786,7 +20372,7 @@
         <v>-5311477.091056933</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19819,7 +20405,7 @@
         <v>-5747790.662056932</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19852,7 +20438,7 @@
         <v>-5747790.662056932</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19885,7 +20471,7 @@
         <v>-5747790.662056932</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19918,7 +20504,7 @@
         <v>-5594877.802756933</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19951,7 +20537,7 @@
         <v>-5594877.802756933</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19984,7 +20570,7 @@
         <v>-5532458.067156932</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20017,7 +20603,7 @@
         <v>-5562283.580956932</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20050,7 +20636,7 @@
         <v>-5774871.814956932</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20083,7 +20669,7 @@
         <v>-5751997.771856932</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20116,7 +20702,7 @@
         <v>-5756376.690056932</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20149,7 +20735,7 @@
         <v>-5756376.690056932</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20182,7 +20768,7 @@
         <v>-5756376.690056932</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20215,7 +20801,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20248,7 +20834,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20281,7 +20867,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20314,7 +20900,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20347,7 +20933,7 @@
         <v>-5868296.140056932</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20380,7 +20966,7 @@
         <v>-5873940.250256932</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20413,7 +20999,7 @@
         <v>-5873940.250256932</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20446,7 +21032,7 @@
         <v>-5873940.250256932</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20479,7 +21065,7 @@
         <v>-5960243.822856932</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20512,7 +21098,7 @@
         <v>-5965283.198956932</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20545,7 +21131,7 @@
         <v>-6006287.085756932</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20578,7 +21164,7 @@
         <v>-6441611.126756933</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20611,7 +21197,7 @@
         <v>-6427913.126756933</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20644,7 +21230,7 @@
         <v>-6427913.126756933</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20677,7 +21263,7 @@
         <v>-7242866.071256933</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20710,7 +21296,7 @@
         <v>-7657439.215656932</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20743,7 +21329,7 @@
         <v>-7650982.965056933</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20776,7 +21362,7 @@
         <v>-7650982.965056933</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20809,7 +21395,7 @@
         <v>-7661838.526756933</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20908,7 +21494,7 @@
         <v>-7630737.598056934</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20941,7 +21527,7 @@
         <v>-7661001.917356933</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21139,7 +21725,7 @@
         <v>-6732929.787556932</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21172,7 +21758,7 @@
         <v>-6077410.031056932</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21205,7 +21791,7 @@
         <v>-6023423.495438952</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21238,7 +21824,7 @@
         <v>-6573423.495438952</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21271,7 +21857,7 @@
         <v>-6635449.697910922</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21304,7 +21890,7 @@
         <v>-6410102.908957082</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21337,7 +21923,7 @@
         <v>-6711504.672557082</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21370,7 +21956,7 @@
         <v>-6711504.672557082</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21403,7 +21989,7 @@
         <v>-6714362.809757082</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21436,7 +22022,7 @@
         <v>-6494319.305857082</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21469,7 +22055,7 @@
         <v>-6152183.007357082</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21502,7 +22088,7 @@
         <v>-6415183.007357082</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21535,7 +22121,7 @@
         <v>-6415183.007357082</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21568,7 +22154,7 @@
         <v>-6660414.554457082</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21601,7 +22187,7 @@
         <v>-6660414.554457082</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
